--- a/defines/Bridge_Implan546ToImplan536.xlsx
+++ b/defines/Bridge_Implan546ToImplan536.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria.lucas\OneDrive - Implan Group LLC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\IMPLAN\defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E9A3C-20DF-46C6-873C-E3F4E7A69D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02DDC97-2432-49E3-B629-184B0D3A3E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{59C7E709-1CCE-45D4-B798-96FEB3019E92}"/>
+    <workbookView xWindow="29565" yWindow="4365" windowWidth="18900" windowHeight="11160" xr2:uid="{59C7E709-1CCE-45D4-B798-96FEB3019E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2115,14 +2118,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86EDF2A-9C7F-4C8F-A0C3-AA6DE502F299}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -14782,6 +14795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D5172B-2B07-4EBA-9F0B-2250A63F613F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
